--- a/subj/OPD/Labs/lab5/Программа.xlsx
+++ b/subj/OPD/Labs/lab5/Программа.xlsx
@@ -877,11 +877,11 @@
   </sheetPr>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1:S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.08"/>
@@ -904,7 +904,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="10.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -990,7 +990,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1203,14 +1203,14 @@
         <v>6</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>96</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2356,7 +2356,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>

--- a/subj/OPD/Labs/lab5/Программа.xlsx
+++ b/subj/OPD/Labs/lab5/Программа.xlsx
@@ -506,7 +506,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +517,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00DC00"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -564,7 +570,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -615,6 +621,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -877,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1:S29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,7 +914,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="10.82"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,7 +969,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -990,7 +1000,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1055,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1110,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1165,7 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1220,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1275,7 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1330,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1379,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1428,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1481,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1524,7 +1534,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1589,7 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1644,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1689,7 +1699,7 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +1754,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1799,7 +1809,7 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -1854,7 +1864,7 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1911,7 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +1958,7 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -2003,7 +2013,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -2058,7 +2068,7 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -2168,7 +2178,7 @@
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>96</v>
       </c>
@@ -2223,7 +2233,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>101</v>
       </c>
@@ -2278,7 +2288,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
@@ -2333,7 +2343,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2356,7 +2366,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2368,7 +2378,7 @@
       <c r="Q29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="13" t="s">
         <v>107</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -2559,17 +2569,17 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="14"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="14"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="14"/>
+      <c r="G51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
